--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.517</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.266</v>
+        <v>19.095</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.23</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.615</v>
+        <v>17.924</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.985</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.533</v>
+        <v>15.931</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36.11514785353081</v>
+        <v>18.83794319575788</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>33.92102436718417</v>
+        <v>17.9614231138552</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>42.77120117416982</v>
+        <v>22.98248549423732</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>33.54625881547285</v>
+        <v>4.934103218351112</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36.58949516509969</v>
+        <v>20.73531819122267</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36.92210531079033</v>
+        <v>30.13652345908957</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>34.71918020694671</v>
+        <v>30.68056971521309</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>43.59410589317088</v>
+        <v>36.59487583535855</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.32437839799066</v>
+        <v>17.1664359186278</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>37.38654869028622</v>
+        <v>35.83065072607157</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.12946115190872</v>
+        <v>31.2365002793073</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.9264846656644</v>
+        <v>32.03746953867275</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>43.7995126880793</v>
+        <v>38.11012747563161</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34.52718177315399</v>
+        <v>18.51042081954545</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.59134818469677</v>
+        <v>37.86867887789317</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>36.56948128874703</v>
+        <v>26.60050663484195</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.36810010146093</v>
+        <v>26.1427484246464</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>43.24377889837024</v>
+        <v>31.71742557731729</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>33.97982863647601</v>
+        <v>12.75384647960604</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>37.03969583196695</v>
+        <v>31.37793494000922</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34.42292378619402</v>
+        <v>22.52900551766983</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>43.15272578911522</v>
+        <v>28.33439099792031</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.04704583545232</v>
+        <v>9.196633735459271</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>44.38279564329417</v>
+        <v>26.89952269572412</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>42.25843689805255</v>
+        <v>31.85357082134539</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>51.04516775265042</v>
+        <v>38.43895165966047</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>41.83042568781985</v>
+        <v>17.66567609375587</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>35.21125483543147</v>
+        <v>39.14977487885419</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>43.96548305253444</v>
+        <v>45.9882823756698</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>34.81556956716986</v>
+        <v>25.31223039773426</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>45.18972228442372</v>
+        <v>44.81465199524902</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>43.05690104129774</v>
+        <v>51.33285703401396</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51.86816053723209</v>
+        <v>59.00996745302427</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.60919130079566</v>
+        <v>36.58236672733774</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.41599389365988</v>
+        <v>41.43221205041058</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>44.16835438124746</v>
+        <v>48.45914717690948</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.01585926450113</v>
+        <v>27.58530144746975</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>45.38980058412321</v>
+        <v>47.85146014020599</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>43.25696447568176</v>
+        <v>54.60287123341274</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>52.06632634557313</v>
+        <v>62.47953479292954</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>42.80490033499171</v>
+        <v>39.82734282455839</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>34.86592251327381</v>
+        <v>33.57854134724781</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>43.6208976341611</v>
+        <v>40.03619613447515</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.47664696303518</v>
+        <v>19.87210105443418</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>44.84138524507492</v>
+        <v>40.42896267177039</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>42.71009647851088</v>
+        <v>45.82532502827289</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>51.52203502539605</v>
+        <v>53.10277801361848</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.26888326468891</v>
+        <v>31.19380838122866</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>34.34865519211836</v>
+        <v>25.17783305442191</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.00149323691339</v>
+        <v>24.32345313546292</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40.97545982200941</v>
+        <v>29.89958413063773</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>31.52138207770729</v>
+        <v>10.45399197159221</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>34.74403712238188</v>
+        <v>25.15488041341427</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>35.14787134769914</v>
+        <v>35.42418839836434</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>32.79198526915869</v>
+        <v>35.97751758998133</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>41.79080659164761</v>
+        <v>42.44922394181071</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>32.29214823522423</v>
+        <v>21.61120005331897</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>35.53329375684544</v>
+        <v>38.97727843373125</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>35.3555295075286</v>
+        <v>36.00217102245466</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>32.9997283022194</v>
+        <v>36.8158990873484</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>41.99658334834602</v>
+        <v>43.43724513429029</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.49551125240955</v>
+        <v>22.44849628969702</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.73844992327707</v>
+        <v>40.45231970751882</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>34.79580848093478</v>
+        <v>31.75428438627699</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>32.44125306096485</v>
+        <v>31.33530702185019</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>41.44087687477041</v>
+        <v>37.45515522373764</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31.94763544469117</v>
+        <v>17.12549202418892</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35.18689672358396</v>
+        <v>34.43347649852273</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>32.42713313429421</v>
+        <v>27.23102307042421</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>41.27977488097326</v>
+        <v>33.639911307857</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>31.95025660267893</v>
+        <v>13.15111880388987</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>42.99790811322863</v>
+        <v>31.81565438014885</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>40.73011210817174</v>
+        <v>36.82640740413943</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>49.63552040136274</v>
+        <v>44.03930947538925</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>40.19473097641944</v>
+        <v>21.82005485002621</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>33.20774326168666</v>
+        <v>42.57484266677606</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.08491764519876</v>
+        <v>50.01630719670837</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.71137165482573</v>
+        <v>27.989026183514</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>43.79740349924359</v>
+        <v>48.50334638765914</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.52123391380857</v>
+        <v>55.08184978845127</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>50.45125822138986</v>
+        <v>63.38791136857449</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>40.96645255839891</v>
+        <v>39.51268423194571</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>33.4129725982967</v>
+        <v>44.29763200514193</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>42.28821166064614</v>
+        <v>51.91747954782041</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>32.9122697227569</v>
+        <v>29.71598175891355</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>43.99752583984073</v>
+        <v>50.97290650656166</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>41.72147239748394</v>
+        <v>57.79334721267816</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>50.6495302506631</v>
+        <v>66.28988701606691</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>41.16245860106805</v>
+        <v>42.21437077939544</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>32.86265632854028</v>
+        <v>36.94004123961497</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>41.74062671872113</v>
+        <v>43.9879018389031</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.37238853906114</v>
+        <v>22.514086462505</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>43.45025614412802</v>
+        <v>43.9837215124563</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>41.17541063570579</v>
+        <v>49.46540597409165</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>50.10616461227991</v>
+        <v>57.36034751207838</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>40.6268151231202</v>
+        <v>34.04540102368665</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>34.34865519211836</v>
+        <v>23.64951339547408</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.00149323691339</v>
+        <v>22.87511305559759</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>40.97545982200941</v>
+        <v>28.41230794552797</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>31.52138207770729</v>
+        <v>9.119938543111974</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>34.74403712238188</v>
+        <v>24.51665039376431</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.14787134769914</v>
+        <v>33.90260749852401</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>32.79198526915869</v>
+        <v>34.5339405972251</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>41.79080659164761</v>
+        <v>40.96700217712251</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>32.29214823522423</v>
+        <v>20.28328141645995</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>35.53329375684544</v>
+        <v>38.35234461312285</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.3555295075286</v>
+        <v>34.49125845819353</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>32.9997283022194</v>
+        <v>35.38151796376751</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>41.99658334834602</v>
+        <v>41.96469556572634</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>32.49551125240955</v>
+        <v>21.1284412596574</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.73844992327707</v>
+        <v>39.83421935228235</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>34.79580848093478</v>
+        <v>30.21238825832705</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>32.44125306096485</v>
+        <v>29.87192214158732</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.44087687477041</v>
+        <v>35.95332043891443</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>31.94763544469117</v>
+        <v>15.77533742237006</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>35.18689672358396</v>
+        <v>33.79181651419849</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>32.42713313429421</v>
+        <v>26.61143835738259</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>41.27977488097326</v>
+        <v>32.99690158590583</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>31.95025660267893</v>
+        <v>12.60031598862466</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>42.99790811322863</v>
+        <v>31.41195754987591</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>40.73011210817174</v>
+        <v>36.42554526067632</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>49.63552040136274</v>
+        <v>43.62022112322379</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.19473097641944</v>
+        <v>21.47320580624085</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>33.20774326168666</v>
+        <v>41.9650373255817</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>42.08491764519876</v>
+        <v>49.38380926505118</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>32.71137165482573</v>
+        <v>27.44820032990297</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.79740349924359</v>
+        <v>48.12825240694069</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>41.52123391380857</v>
+        <v>54.70686739052653</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>50.45125822138986</v>
+        <v>62.99568382448516</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>40.96645255839891</v>
+        <v>39.1919312479998</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>33.4129725982967</v>
+        <v>43.69336779049303</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>42.28821166064614</v>
+        <v>51.29099573233608</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>32.9122697227569</v>
+        <v>29.17948008301931</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>43.99752583984073</v>
+        <v>50.60791146918446</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>41.72147239748394</v>
+        <v>57.42746576234325</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>50.6495302506631</v>
+        <v>65.90725148648588</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>41.16245860106805</v>
+        <v>41.90166494594484</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>32.86265632854028</v>
+        <v>36.31454964029368</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>41.74062671872113</v>
+        <v>43.33983215853029</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>32.37238853906114</v>
+        <v>21.95556864210765</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>43.45025614412802</v>
+        <v>43.5897190722044</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>41.17541063570579</v>
+        <v>49.07199948564297</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>50.10616461227991</v>
+        <v>56.94969207506478</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>40.6268151231202</v>
+        <v>33.70431116972875</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.81146910585851</v>
+        <v>13.73085473278159</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>27.67564386806222</v>
+        <v>12.82949579993492</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.49873629824175</v>
+        <v>17.64821168704968</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>27.46838302535147</v>
+        <v>0.03768623374704205</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.33578046708781</v>
+        <v>15.42339637826002</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.61425428898676</v>
+        <v>24.76731483927859</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.46965772211197</v>
+        <v>25.2864046990596</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>37.31750699123663</v>
+        <v>30.99118220589612</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.24246844629261</v>
+        <v>12.01121663494808</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>31.12866354590233</v>
+        <v>30.18916374678826</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>30.82601993738329</v>
+        <v>25.87556841772669</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.68132964386543</v>
+        <v>26.65319244940929</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>37.5273061142517</v>
+        <v>32.51760547149508</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.44951923607649</v>
+        <v>13.36424046451156</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.33783062132739</v>
+        <v>32.2184538292929</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.25492120245678</v>
+        <v>21.37756931669648</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.1119310990772</v>
+        <v>20.89974922769833</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>36.96048234113879</v>
+        <v>26.27016583586116</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>27.89144033490856</v>
+        <v>7.750868745239773</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>30.77517235033562</v>
+        <v>25.90676799821414</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.22701585471336</v>
+        <v>17.17492954936188</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>36.92981168075804</v>
+        <v>22.76637825169075</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.01730457043508</v>
+        <v>4.082377892755154</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.45663685784318</v>
+        <v>22.42019918763247</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>36.38695284347541</v>
+        <v>27.26077668465996</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>45.14982796459898</v>
+        <v>33.64266250533014</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>36.11650036907285</v>
+        <v>13.26641261793756</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.01120652169753</v>
+        <v>33.47060361947254</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>37.73843601488765</v>
+        <v>40.08690976719934</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.7817957562548</v>
+        <v>19.87852227784195</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>39.25981519793816</v>
+        <v>40.01594504997462</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>37.18169753377225</v>
+        <v>46.4245685611091</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>45.96911259151287</v>
+        <v>53.88959005295123</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>36.89164480468222</v>
+        <v>31.8730845268201</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.22027117584437</v>
+        <v>35.74730535268215</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>37.94565761117185</v>
+        <v>42.55320034324446</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.98629220282641</v>
+        <v>22.14549290891565</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>39.46407729341936</v>
+        <v>43.03352529490057</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>37.38590522371687</v>
+        <v>49.67882755537956</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>46.17144553369554</v>
+        <v>57.34430737274533</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>37.09138441436384</v>
+        <v>35.10243642097801</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.65929769743795</v>
+        <v>28.07290313221451</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>37.38722346026329</v>
+        <v>34.31409317626613</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.43646297824239</v>
+        <v>14.61193728288421</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>38.90508090633649</v>
+        <v>35.77968544782565</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.82855446048013</v>
+        <v>41.06992578716442</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>45.61660010234347</v>
+        <v>48.14112442264468</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>36.54515802803033</v>
+        <v>26.63767033118301</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>35.49547530443067</v>
+        <v>22.9586927449293</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.29503930185991</v>
+        <v>21.92062315746074</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>42.14595909900628</v>
+        <v>27.17290980612501</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32.92088061348004</v>
+        <v>8.488589335477066</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.98829067859251</v>
+        <v>26.88709457215192</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.3009696629202</v>
+        <v>34.36571554772373</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>34.09172388536901</v>
+        <v>34.73844319871903</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>42.96739222488209</v>
+        <v>40.88612603683385</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.69754352930994</v>
+        <v>20.80755803871249</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>36.78391958976354</v>
+        <v>42.00543793247117</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>36.50849916028717</v>
+        <v>35.50555283826556</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>34.29920634711018</v>
+        <v>36.13547624302713</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>43.17297594073636</v>
+        <v>42.44159367557721</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>33.90052736579508</v>
+        <v>22.19222842176536</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>36.98888870150439</v>
+        <v>44.05037789659046</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>35.94796470658952</v>
+        <v>30.87734169317407</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.74025918507546</v>
+        <v>30.2561005022898</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42.61667480861303</v>
+        <v>36.06580550790591</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>33.35260651308681</v>
+        <v>16.45642374023059</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>36.43670370124352</v>
+        <v>37.64905155884715</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.81530226517081</v>
+        <v>28.62920588194682</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>42.54592964610565</v>
+        <v>34.69966553910589</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>33.43956484821139</v>
+        <v>14.91388135552068</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>43.81426512338691</v>
+        <v>31.87150148012099</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>41.68354471349981</v>
+        <v>36.77147634330014</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>50.47141503708399</v>
+        <v>43.59836907846254</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>41.25613203905186</v>
+        <v>22.24256600018659</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>34.60220009713597</v>
+        <v>45.269566995047</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>43.35725345113197</v>
+        <v>52.37411617207247</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>34.20666885055053</v>
+        <v>31.04093712543548</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>44.6197237837107</v>
+        <v>49.73475375052945</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>42.48053578151655</v>
+        <v>56.19660292816801</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>51.29293466935113</v>
+        <v>64.11537322516361</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.03344278159574</v>
+        <v>41.09942876144277</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>34.80711302419969</v>
+        <v>47.55934439518102</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>43.56029750713276</v>
+        <v>54.85206192070949</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>34.40713492338715</v>
+        <v>33.32238216432536</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>44.8199210037217</v>
+        <v>52.76812551062972</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>42.68072340031759</v>
+        <v>59.46395117238073</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>51.49122329958838</v>
+        <v>67.58185497389869</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>42.22927970737653</v>
+        <v>44.34314346823518</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>34.25650081396098</v>
+        <v>39.79919855455503</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>43.01229527700546</v>
+        <v>46.52558425224348</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.86737607931143</v>
+        <v>25.70537162809604</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>44.2710562447765</v>
+        <v>45.4698410833067</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.13339668564349</v>
+        <v>50.81409345004222</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>50.94646947647905</v>
+        <v>58.33601292409728</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>41.692797128203</v>
+        <v>35.83877201443811</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-28.30926853331528</v>
+        <v>24.28093062356864</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-29.73342297303815</v>
+        <v>23.31572712852482</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-20.87229317678696</v>
+        <v>28.87015658100531</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-28.13565653869747</v>
+        <v>9.582725638775585</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-27.18740334209016</v>
+        <v>29.78457199159739</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-27.55593884500998</v>
+        <v>34.391859470269</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-28.98816381249555</v>
+        <v>34.79622139644574</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-20.101997511133</v>
+        <v>41.21926214177355</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-27.40862528173935</v>
+        <v>20.57416778645744</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-26.44346008298314</v>
+        <v>43.37725480885637</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-27.30623563891361</v>
+        <v>35.13252550445178</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-28.7389979215531</v>
+        <v>35.79075977184137</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-19.85466890858684</v>
+        <v>42.36073166677124</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-27.1652345462434</v>
+        <v>21.5661487699853</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-26.19673651586039</v>
+        <v>44.95341400503509</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-27.97248597216953</v>
+        <v>31.05422433691043</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-29.40240951104844</v>
+        <v>30.50684903263324</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-20.5156504504212</v>
+        <v>36.5947317336534</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-27.81448270902833</v>
+        <v>16.43058453308818</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-26.8535724861086</v>
+        <v>39.22496716368924</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-28.59189482304432</v>
+        <v>31.77731530659134</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-19.85113102295501</v>
+        <v>38.21926438041687</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-27.01518886155589</v>
+        <v>17.82283766991717</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-17.4693016553235</v>
+        <v>35.49435868000341</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-18.84764435238505</v>
+        <v>40.38604107746266</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-10.04783612644108</v>
+        <v>47.55779622888056</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-17.37563409501208</v>
+        <v>25.63105341311787</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-27.85595236724806</v>
+        <v>46.85378928558053</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-19.09047745011971</v>
+        <v>54.29727134842041</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-26.29726351057386</v>
+        <v>32.4036264281368</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-16.71378492842145</v>
+        <v>51.80586011200771</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-18.09987073804403</v>
+        <v>58.22316771144842</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-9.275254870760229</v>
+        <v>66.45351651124281</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-16.64581292186644</v>
+        <v>42.92071736551539</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-27.6097708523307</v>
+        <v>48.67123915932547</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-18.84610386572579</v>
+        <v>56.28945614587224</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-26.05679278164489</v>
+        <v>34.22385911767277</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-16.47303711692955</v>
+        <v>54.34221268863429</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-17.85960548853524</v>
+        <v>60.99367328464118</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-9.036830682485324</v>
+        <v>69.41041745610809</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-16.4111271818669</v>
+        <v>45.67997947964367</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-28.26379499649945</v>
+        <v>41.63254346586908</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-19.49773161121428</v>
+        <v>48.70236051330886</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-26.69685863216075</v>
+        <v>27.32950747694592</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-17.12353043453388</v>
+        <v>47.70554087086705</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-18.50735391478668</v>
+        <v>53.05010072643775</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-9.682213479393361</v>
+        <v>60.89055562400757</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-17.04500994162976</v>
+        <v>37.88207700348163</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-30.82172443540973</v>
+        <v>14.57527711257823</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-32.16474022128883</v>
+        <v>14.00573706011955</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-23.31077613622923</v>
+        <v>18.96827874773944</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-30.42436461914937</v>
+        <v>1.295856171696162</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-29.70329646769192</v>
+        <v>16.51137900527777</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-30.06759846870738</v>
+        <v>24.39076846458127</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-31.41859812654432</v>
+        <v>25.20812720311168</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-22.53958063552337</v>
+        <v>31.03199704513145</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-29.69636346433223</v>
+        <v>12.0378534618551</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-28.95862876228902</v>
+        <v>30.01312251061251</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-29.81553401131409</v>
+        <v>25.03936946079557</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-31.16712307324074</v>
+        <v>26.10823662326167</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-22.28993180977921</v>
+        <v>32.0793104559294</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-29.45076417454809</v>
+        <v>12.93299789288549</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-28.70956606604165</v>
+        <v>31.56372776065773</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-30.48743119921138</v>
+        <v>20.97384790822322</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-31.83606017682806</v>
+        <v>20.82341189256402</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-22.95644758407344</v>
+        <v>26.31070418736151</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-30.10529096122763</v>
+        <v>7.783294877309707</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-29.37202592181468</v>
+        <v>25.66249629083436</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-31.0269984053506</v>
+        <v>18.59403733258939</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>-22.29356644402618</v>
+        <v>24.38057289072567</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-29.30792287092036</v>
+        <v>5.571134045604602</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-19.94425141255834</v>
+        <v>25.04222282186068</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-21.24435627133976</v>
+        <v>30.00359745430829</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-12.45172747857254</v>
+        <v>36.5773463464667</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-19.63599902165219</v>
+        <v>16.06806624749272</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-30.29024433157353</v>
+        <v>33.58104817627909</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-21.53208491605593</v>
+        <v>40.36468329339289</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-28.58909713557929</v>
+        <v>20.08093844180507</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-19.18772308047601</v>
+        <v>41.43792782994722</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-20.49549649526899</v>
+        <v>47.92507434086265</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-11.67804211418424</v>
+        <v>55.55489015160589</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-18.90502167431512</v>
+        <v>33.45530946521905</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-30.04177511761656</v>
+        <v>35.37054369591586</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-21.28541255466438</v>
+        <v>42.32987710960949</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-28.34643840295791</v>
+        <v>21.86980542074278</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-18.94456443761042</v>
+        <v>43.97156966089671</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-20.25287333761595</v>
+        <v>50.69005062365449</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-11.43724858107677</v>
+        <v>58.50753179468175</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-18.66807844948304</v>
+        <v>36.20502653873576</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-30.70130231611542</v>
+        <v>28.15405549872504</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-21.94255193872986</v>
+        <v>34.56021009902331</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-28.99176139229929</v>
+        <v>14.79130784636326</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-19.60074126797316</v>
+        <v>37.08055328529783</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-20.90618465172296</v>
+        <v>42.48704173933099</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-12.08820465561805</v>
+        <v>49.72275950529647</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-19.30728158440923</v>
+        <v>28.14366288593271</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-2.468263793403963</v>
+        <v>14.04943217474812</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-4.121282840038951</v>
+        <v>13.19422552806982</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>4.576163639130272</v>
+        <v>18.32763331821942</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-3.262287661653986</v>
+        <v>-0.09777632768564359</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-1.580543865704172</v>
+        <v>16.67352195512152</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-1.69952937120928</v>
+        <v>25.15673218895066</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-3.36084488191937</v>
+        <v>25.72571648710734</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>5.361212055685407</v>
+        <v>31.75665639857858</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-2.520698611361247</v>
+        <v>11.93709098430687</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-0.8212875852174832</v>
+        <v>31.49037531879444</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-1.468392952020835</v>
+        <v>26.25973076888248</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-3.130099787347369</v>
+        <v>27.08778130270014</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>5.590157910980217</v>
+        <v>33.27798295044124</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-2.295223577734781</v>
+        <v>13.28694426450043</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-0.5929559625717218</v>
+        <v>33.50851840209208</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-2.087861681831882</v>
+        <v>21.72066850385646</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-3.74712195387945</v>
+        <v>21.29031900094693</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>4.97555239334713</v>
+        <v>26.98087299938162</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-2.899283815915759</v>
+        <v>7.63483713881817</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-1.203464388303843</v>
+        <v>27.18394991581826</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-3.212040125828466</v>
+        <v>18.6171308482559</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>5.366928009105635</v>
+        <v>24.55867511403383</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-2.367654594941598</v>
+        <v>5.047846589909334</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>7.225856785572027</v>
+        <v>22.63499013444078</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>5.62318246568357</v>
+        <v>27.7091820766798</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>14.26215894095481</v>
+        <v>34.42561951502502</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>6.384650553465612</v>
+        <v>13.27513595800891</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2.461007081922233</v>
+        <v>34.9710555171533</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>6.142250808575554</v>
+        <v>41.94962701967796</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-1.635254990575604</v>
+        <v>20.8910020450918</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.995868816459407</v>
+        <v>40.25571399294023</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>6.385222330476694</v>
+        <v>46.90700516951643</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>15.04859248387226</v>
+        <v>54.71912063289945</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>7.128140551172386</v>
+        <v>31.90581622062252</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-2.233072241115828</v>
+        <v>37.23611068978953</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>6.368415179900886</v>
+        <v>44.40391741535152</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-1.412530327178622</v>
+        <v>23.14807055138207</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>8.218812318137594</v>
+        <v>43.2701367701751</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>6.607824360589703</v>
+        <v>50.15787783676274</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>15.26939185016173</v>
+        <v>58.17037708735002</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>7.345648324972785</v>
+        <v>35.13349445435431</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-2.841158020027351</v>
+        <v>29.54429959978204</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>5.762712552580808</v>
+        <v>36.14181179490627</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-2.007847653469852</v>
+        <v>15.60119976884735</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>7.613164165575952</v>
+        <v>36.02510165892868</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>6.004543050700498</v>
+        <v>41.55217010443484</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>14.66846160690449</v>
+        <v>48.96452583171633</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>6.755077324300636</v>
+        <v>26.67531223389879</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-1.097322008401797</v>
+        <v>32.8934724464869</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>-2.81768368977751</v>
+        <v>32.19781996138449</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>6.007978334737423</v>
+        <v>38.06723137614687</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-2.025231710106297</v>
+        <v>18.23449265336222</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-0.2841441349631779</v>
+        <v>32.4246617374298</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-0.3373957577309099</v>
+        <v>43.15928958463055</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-2.06592357590565</v>
+        <v>43.8646274998319</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>6.78435289318768</v>
+        <v>50.61907457993084</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-1.291964786601547</v>
+        <v>29.41314474486434</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>0.4663458735591348</v>
+        <v>46.19747921207922</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>-0.1091639857764406</v>
+        <v>43.7689773408772</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-1.838008503663673</v>
+        <v>44.73094296620967</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>7.010365588782584</v>
+        <v>51.63123941792559</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>-1.069204217654281</v>
+        <v>30.27871734562351</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>0.6918416764327802</v>
+        <v>47.71261213458172</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>-0.7205498164276136</v>
+        <v>39.6071499432887</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>-2.447150251847113</v>
+        <v>39.34083176645107</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>6.403852599813142</v>
+        <v>45.7498868951041</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-1.665746131573435</v>
+        <v>25.0330603044603</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>0.08919552416045917</v>
+        <v>41.84314849278322</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1.981512965757005</v>
+        <v>34.75969542224871</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>6.72456802697986</v>
+        <v>41.46568733793458</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-1.20070087987326</v>
+        <v>20.62906819548513</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>8.495326852197678</v>
+        <v>37.84594827712055</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>6.833434326518436</v>
+        <v>43.09966598207892</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>15.59206701857212</v>
+        <v>50.53773217345932</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>7.531989244645125</v>
+        <v>28.15013230155898</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-1.239117927405587</v>
+        <v>50.04293860975127</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>7.491257799275623</v>
+        <v>57.76787929565992</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-0.4765853173812715</v>
+        <v>35.41648594033697</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>9.256421160020579</v>
+        <v>54.38119110977519</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>7.586692364497026</v>
+        <v>61.18748033090043</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>16.36970773662787</v>
+        <v>69.70259636735935</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>8.267047436216025</v>
+        <v>45.68862641930757</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-1.013945811411098</v>
+        <v>51.80032845106135</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>7.71455748589635</v>
+        <v>59.69974341679892</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-0.2565104733414714</v>
+        <v>37.17798976708669</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>9.476541021856505</v>
+        <v>56.8812992863303</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>7.806539529523086</v>
+        <v>63.92291835796189</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>16.58765313973516</v>
+        <v>72.6246874025224</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>8.481912018960337</v>
+        <v>48.41380076520515</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-1.614367786336963</v>
+        <v>44.60141664552429</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>7.116728465471269</v>
+        <v>51.94230747935301</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-0.8445182230567454</v>
+        <v>30.12102454598838</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>8.87903453420023</v>
+        <v>50.09625387150469</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>7.211207423078605</v>
+        <v>55.81199376336131</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>15.99487711573011</v>
+        <v>63.92687166029735</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>7.89893554415054</v>
+        <v>40.44713483556178</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-8.788144446741988</v>
+        <v>11.49987059867459</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-10.45169928529497</v>
+        <v>10.70742300456582</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-1.907953044392336</v>
+        <v>15.36721683488519</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-9.497135435642512</v>
+        <v>-1.723631404980299</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-7.959316760276643</v>
+        <v>12.72823948902874</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-8.043853366666688</v>
+        <v>21.330540957866</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-9.715339762247417</v>
+        <v>21.86453495992241</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-1.147437057301723</v>
+        <v>27.37097152336361</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-8.778799044291723</v>
+        <v>8.971229482248047</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-7.224415943075734</v>
+        <v>26.14480579746188</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-7.812208125750907</v>
+        <v>21.94247652830546</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-9.484007526317733</v>
+        <v>22.71960215038868</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-0.9178573397661793</v>
+        <v>28.36984012280871</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-8.552665121241709</v>
+        <v>9.821984978809017</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-6.995513749559528</v>
+        <v>27.62019109935822</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-8.429937108349925</v>
+        <v>17.642893897065</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-10.09953802089469</v>
+        <v>17.25177820619783</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-1.531018310081272</v>
+        <v>22.41931656571085</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-9.155554194718924</v>
+        <v>4.50306864013378</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-7.604531628414115</v>
+        <v>21.49705357108547</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-9.599802328675743</v>
+        <v>14.41158440680337</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-1.171864275541125</v>
+        <v>19.84730094417963</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-8.65660596607615</v>
+        <v>1.675560702123146</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>1.213185012479798</v>
+        <v>20.66452485623155</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-0.3950001426134619</v>
+        <v>25.20384485105897</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>8.087710494354432</v>
+        <v>31.45116892507596</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>0.4555823051319621</v>
+        <v>11.53975738240004</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-8.872762234116401</v>
+        <v>29.2530901594688</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-0.4209800846056595</v>
+        <v>35.6693085395157</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-7.94737442611541</v>
+        <v>16.03706543188297</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>1.959251845686374</v>
+        <v>36.90841379040465</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>0.3434503874249728</v>
+        <v>42.9179577230458</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>8.850085656548607</v>
+        <v>50.20468397476139</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>1.176274292492266</v>
+        <v>28.71714717508002</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>-8.644180163896557</v>
+        <v>30.9602719467501</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>-0.1941220003396893</v>
+        <v>37.5477103643541</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-7.723933233993911</v>
+        <v>17.74408936405888</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>2.182571837979168</v>
+        <v>39.34034232102243</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>0.5665005488646315</v>
+        <v>45.57551560110748</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>9.071377944326763</v>
+        <v>53.04484205635522</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1.394300249764314</v>
+        <v>31.36086705749288</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>-9.251018892027936</v>
+        <v>23.57139920801463</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-0.7986239535190478</v>
+        <v>29.60558892913288</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-8.318315410948379</v>
+        <v>10.50795650957718</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1.579416675119248</v>
+        <v>32.24579787712469</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>-0.0345240051531448</v>
+        <v>37.21381244592386</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>8.472661707351911</v>
+        <v>44.10091729985365</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>0.8056643139549777</v>
+        <v>23.1559364857177</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>13.08528986030338</v>
+        <v>19.14851396548131</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>11.05375006313268</v>
+        <v>18.14370310015949</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>19.77344948598121</v>
+        <v>23.35512034423271</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>11.24411464686773</v>
+        <v>4.75246166303533</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>13.70418421442685</v>
+        <v>24.08435433289148</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>13.8526001737027</v>
+        <v>29.14883654845564</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>11.81272035281501</v>
+        <v>29.50079342755646</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>20.55681144292098</v>
+        <v>35.58208963563425</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>11.98425671387956</v>
+        <v>15.62029964942987</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>14.46189022575707</v>
+        <v>37.58581337451146</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>14.07089407198758</v>
+        <v>29.79416279965469</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>12.0309217269379</v>
+        <v>30.39877218498657</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>20.77315839651068</v>
+        <v>36.62839588337771</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>12.19772132278625</v>
+        <v>16.51496778790187</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>14.6775751457329</v>
+        <v>39.05858741206288</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>13.48523322588076</v>
+        <v>25.62063084605755</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>11.4469307457199</v>
+        <v>25.03376260064152</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>20.19170414696752</v>
+        <v>30.77564375037028</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>11.62522748191</v>
+        <v>11.30839878280071</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>14.10033246736403</v>
+        <v>33.18877217121121</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.69937763220737</v>
+        <v>25.83598640724572</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>20.30103368992415</v>
+        <v>31.91310297559512</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>11.88569662760688</v>
+        <v>12.15510283499479</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.47431343825194</v>
+        <v>30.97914426214702</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.5098354503729</v>
+        <v>35.58449167924279</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.16671490345003</v>
+        <v>42.46186255924465</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>20.62048164950955</v>
+        <v>20.98362269186688</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>12.44881735350012</v>
+        <v>40.80824508860582</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>21.07454914659817</v>
+        <v>47.88970707767385</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>12.61652926171784</v>
+        <v>26.62882505259779</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>23.24271407838057</v>
+        <v>47.2848828806833</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>21.27023290959345</v>
+        <v>53.40798472077932</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.95127237751018</v>
+        <v>61.34897495862299</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>21.36234934761666</v>
+        <v>38.25365998971508</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>12.66440008111308</v>
+        <v>42.52283067672447</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>21.28830702842635</v>
+        <v>49.78024591965146</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>12.82742785861709</v>
+        <v>28.34572612294881</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>23.45302521040672</v>
+        <v>49.72187185239878</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>21.4804899900096</v>
+        <v>56.08147800470779</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.15967149454836</v>
+        <v>64.2099504106682</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>21.56803166976226</v>
+        <v>40.91620663983834</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>12.08881344321481</v>
+        <v>35.35465537127895</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>20.71522239469439</v>
+        <v>42.05537482267498</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>12.26316449954715</v>
+        <v>21.33330738877705</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>22.88098787577772</v>
+        <v>42.89483345810203</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.91006740513109</v>
+        <v>47.95433994822304</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.59172157683865</v>
+        <v>55.4970931987831</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>21.00888737223141</v>
+        <v>32.94736290214113</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>32.23057943969639</v>
+        <v>12.37189986600396</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.96611361514922</v>
+        <v>11.67150631855291</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>38.67615417924748</v>
+        <v>16.46552639537045</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.57066581013062</v>
+        <v>-0.9322247181494951</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>32.60479787699867</v>
+        <v>11.51744708270466</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>33.00741389884937</v>
+        <v>21.77499886010644</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>30.73447612025524</v>
+        <v>22.44539329125795</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>39.46869918800222</v>
+        <v>28.09381239324405</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>30.31987913577478</v>
+        <v>9.379340900953402</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>33.3718626832393</v>
+        <v>24.42092784266029</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>33.21178762298514</v>
+        <v>22.29001140312413</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>30.93891769171428</v>
+        <v>23.21338874793939</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>39.67124719080965</v>
+        <v>29.00884734318879</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>30.52000235289909</v>
+        <v>10.14384406964372</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>33.57378803584945</v>
+        <v>25.81007059808607</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>32.66162040208165</v>
+        <v>18.35389152795775</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>30.3899893474761</v>
+        <v>18.08056704609012</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>39.12495627488504</v>
+        <v>23.39438142479221</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.98149984218455</v>
+        <v>5.159351268355003</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>33.031590563605</v>
+        <v>20.11626832085258</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>30.37002547742223</v>
+        <v>13.45609624079334</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>38.96195103627689</v>
+        <v>19.03348164548434</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.9782845676284</v>
+        <v>0.5879305230280174</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>40.89685822962936</v>
+        <v>21.0097454609841</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>38.70725730942906</v>
+        <v>25.68372748421719</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>47.35319659812357</v>
+        <v>32.09322409747334</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>38.25003645064103</v>
+        <v>11.79514621961262</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>31.12869450614052</v>
+        <v>27.83746243615577</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>39.74448873360495</v>
+        <v>34.40253715195829</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.7180315214634</v>
+        <v>14.49551292412199</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>41.6743696592041</v>
+        <v>36.82440343508401</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>39.47663300457717</v>
+        <v>43.01960818269738</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>48.14652502598504</v>
+        <v>50.47648182988485</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>39.00056549876103</v>
+        <v>28.59877037484016</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.33067637721269</v>
+        <v>29.46910623445303</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>39.94460711197358</v>
+        <v>36.20915770994021</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.91574282864583</v>
+        <v>16.12886645484226</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>41.87130172975618</v>
+        <v>39.17820664564257</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>39.67366402492315</v>
+        <v>45.61080891540365</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>48.34166066037592</v>
+        <v>53.25428957793</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>39.19342487404641</v>
+        <v>31.17841982900994</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>30.78970938534707</v>
+        <v>22.47677593426023</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>39.40624157598519</v>
+        <v>28.66589357527312</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>30.38504163004313</v>
+        <v>9.284494279076604</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>41.33355953814319</v>
+        <v>32.46975007826109</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>39.13712103731228</v>
+        <v>37.60352794795605</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>47.8076880853944</v>
+        <v>44.66737754380443</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>38.6671228866834</v>
+        <v>23.32342871597856</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>12.03895117995216</v>
+        <v>3.7542558971281</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>10.08370195614344</v>
+        <v>3.01386867898141</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>18.4972859329187</v>
+        <v>7.377557548594062</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>10.32642680701784</v>
+        <v>-8.950906785716313</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>12.61896029561161</v>
+        <v>5.115497372497309</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>12.78118690440234</v>
+        <v>12.72137087638949</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>10.81787495474994</v>
+        <v>13.3055431720954</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>19.25506119173019</v>
+        <v>18.49325284133047</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>11.04240762860285</v>
+        <v>0.8923595047206518</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>13.35180338649627</v>
+        <v>17.48463756584514</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>12.99468392986052</v>
+        <v>13.28279202885203</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>11.03127282691178</v>
+        <v>14.11286536818917</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.46668670961717</v>
+        <v>19.44534793317212</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>11.25117153220184</v>
+        <v>1.694780424687174</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>13.56276365277665</v>
+        <v>18.86747119300181</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>12.42260162192242</v>
+        <v>9.521737036613445</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>10.46081885325059</v>
+        <v>9.195300558852226</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>18.89862253278244</v>
+        <v>14.06157501505601</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>10.69193443665898</v>
+        <v>-3.07484606891169</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>12.99884349661878</v>
+        <v>13.40906660251798</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>10.68999498688501</v>
+        <v>6.868264088710188</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>18.98926774830839</v>
+        <v>12.00140387222141</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>10.9296975821461</v>
+        <v>-5.39125429294862</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>21.39461103570624</v>
+        <v>15.03839192794993</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>19.50182477514813</v>
+        <v>19.42948856254183</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>27.85769920535591</v>
+        <v>25.38770844665114</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>19.65887183300063</v>
+        <v>6.142517293587137</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>11.41484758703466</v>
+        <v>20.66971374120054</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>19.73741638134928</v>
+        <v>26.75668612476584</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>11.63657520328212</v>
+        <v>7.950652823805871</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.1383555212668</v>
+        <v>30.24942564262773</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>20.23782716561295</v>
+        <v>36.11541913812252</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.61708272074283</v>
+        <v>43.08556551424492</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>20.37695490593749</v>
+        <v>22.31178577081132</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>11.62569933673844</v>
+        <v>22.28976436504083</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.94652434931591</v>
+        <v>28.54847349793642</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>11.84284419461611</v>
+        <v>9.571212198732152</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.3440142039071</v>
+        <v>32.56117513354749</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>20.44342451514236</v>
+        <v>38.65953984427799</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.82090235730432</v>
+        <v>45.81246651564595</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>20.57807819520323</v>
+        <v>24.84381992065659</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>11.06339456967147</v>
+        <v>15.57253215880189</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>19.38657630224935</v>
+        <v>21.29737413946442</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>11.29158826903493</v>
+        <v>3.0010535802022</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>21.78544045073966</v>
+        <v>26.10602015908945</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>19.88642297502944</v>
+        <v>30.94437649274572</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.26623294824934</v>
+        <v>37.53552098963535</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>20.0320730396325</v>
+        <v>17.27960518225642</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-2.194785139431914</v>
+        <v>18.3295296292076</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-3.82981646505467</v>
+        <v>17.472443490556</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>4.866772441753369</v>
+        <v>22.50363639817334</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-2.951023830829072</v>
+        <v>4.369353752472001</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-1.326079504260278</v>
+        <v>18.26434358934163</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-1.424417552102931</v>
+        <v>29.59367662642843</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-3.067724746837747</v>
+        <v>30.17377642144278</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>5.65347931227717</v>
+        <v>36.10563379368996</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-2.207784086183942</v>
+        <v>16.58057349800619</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-0.5652393581252895</v>
+        <v>33.29802445261873</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-1.19311487153513</v>
+        <v>30.64603416123884</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>-2.836825266521707</v>
+        <v>31.48659329028449</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>5.88258188924403</v>
+        <v>37.5778833282842</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-1.982171773877695</v>
+        <v>17.88102668931694</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-0.3367407339260069</v>
+        <v>35.30159528973812</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-1.812851816043676</v>
+        <v>25.98943150599543</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-3.45408994891941</v>
+        <v>25.55939213082469</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>5.267737894652072</v>
+        <v>31.14746675059709</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-2.586433274988181</v>
+        <v>12.09562504737071</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-0.947535683755909</v>
+        <v>28.79747311571195</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-2.939530648218039</v>
+        <v>20.12077705677566</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>5.638465851512265</v>
+        <v>25.92787186329085</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-2.074913323404488</v>
+        <v>6.742801729667356</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>7.454592206309911</v>
+        <v>25.21044357281555</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>5.869504690687634</v>
+        <v>30.20436168237839</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>14.50722617419206</v>
+        <v>36.81058645993974</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>6.649828197515681</v>
+        <v>15.92421191693226</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-2.186892629869092</v>
+        <v>36.69929280241167</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>6.415398117466921</v>
+        <v>43.54759551129733</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>-1.340910441134582</v>
+        <v>22.81440622870845</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>8.226274675078763</v>
+        <v>43.1181531041909</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>6.633230758886995</v>
+        <v>49.69633299838448</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>15.29535053697931</v>
+        <v>57.40334420704811</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>7.394995251446836</v>
+        <v>34.85063511720381</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>-1.958802476189554</v>
+        <v>38.95090005971744</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>6.641720199100952</v>
+        <v>45.98897344298355</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-1.118047487404148</v>
+        <v>25.05729865195784</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>8.44944595105374</v>
+        <v>46.12783499284718</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>6.856047669097883</v>
+        <v>52.94347726655023</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>15.51636746624264</v>
+        <v>60.85155632931438</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>7.612699607750855</v>
+        <v>38.0735645711084</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>-2.56714897184488</v>
+        <v>31.06987639805775</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>6.035760823663097</v>
+        <v>37.53290068492174</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>-1.71358382951405</v>
+        <v>17.31944338764632</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>7.843420297319973</v>
+        <v>38.66739348402302</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>6.252415682437793</v>
+        <v>44.11329843495631</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>14.91508936505562</v>
+        <v>51.41607847935776</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>7.021820141014864</v>
+        <v>29.39037661789948</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.43020109532598</v>
+        <v>22.69956782016505</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>27.18472657953065</v>
+        <v>21.73147392482815</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>35.92073070255827</v>
+        <v>26.78810774723259</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.86612591028342</v>
+        <v>8.676682020307062</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.85493750210427</v>
+        <v>22.31691535332149</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>30.20897424345754</v>
+        <v>32.6404244085883</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>27.95503767904032</v>
+        <v>33.01383391449292</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>36.71536113051454</v>
+        <v>38.93151663175684</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>27.61727761471784</v>
+        <v>19.48159226254702</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>30.62395853062181</v>
+        <v>35.76044527557396</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>30.41619541766918</v>
+        <v>33.18205179327437</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.1623158221505</v>
+        <v>33.80453622351487</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.92075840858681</v>
+        <v>39.86758395588178</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>27.82016978038833</v>
+        <v>20.26990567266194</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>30.82869779007716</v>
+        <v>37.17073527645424</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.85890211051839</v>
+        <v>28.96904758513151</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>27.60629997603081</v>
+        <v>28.41432643224318</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>36.3673728064816</v>
+        <v>33.99132463117271</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>27.27475199824245</v>
+        <v>15.03587919877228</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.2794789983186</v>
+        <v>31.19421247790781</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>27.63877409708294</v>
+        <v>23.98931773015689</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>36.25668230855779</v>
+        <v>29.82404659221461</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>27.32234096771604</v>
+        <v>10.68830676804926</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>38.14445915655621</v>
+        <v>29.11963620787828</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>35.97487801822695</v>
+        <v>33.63626117922581</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>44.64486252524127</v>
+        <v>40.2774198160928</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>35.59598061368092</v>
+        <v>19.39786136951285</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.39940892110362</v>
+        <v>38.88088696158157</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>37.04132187738214</v>
+        <v>45.71009714301361</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.06404267732717</v>
+        <v>25.08969658148855</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>38.92376463978343</v>
+        <v>45.35782249919958</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>36.74605978962617</v>
+        <v>51.36954997163483</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>45.44012764629193</v>
+        <v>59.06430561615593</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>36.34831091031214</v>
+        <v>36.58460951049086</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.60419390293629</v>
+        <v>40.52904773879722</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.24425594016337</v>
+        <v>47.53130607602809</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.26449036632945</v>
+        <v>26.74016673110214</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>39.12345574869258</v>
+        <v>47.72749545983875</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>36.9458389729507</v>
+        <v>53.97171471474249</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>45.63802400539538</v>
+        <v>61.85089240142095</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>36.54385154795856</v>
+        <v>39.17580071538084</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.0562433133164</v>
+        <v>33.27343349823334</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>36.6988998813939</v>
+        <v>39.71967381744797</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>27.72697464625642</v>
+        <v>19.64146560946558</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>38.57874712468458</v>
+        <v>40.79486989657428</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>36.40236983448172</v>
+        <v>45.75741073274448</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>45.09711687519091</v>
+        <v>53.05134409997895</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>36.01079600806881</v>
+        <v>31.12214273042392</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>57.87017612950424</v>
+        <v>28.88500805060443</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>55.28995936977249</v>
+        <v>27.96492387257865</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>64.44464608580066</v>
+        <v>33.53834263971069</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>54.16599658705744</v>
+        <v>14.11809875894432</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>58.11872020339198</v>
+        <v>29.53841742676282</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>58.71274125219511</v>
+        <v>40.48978293456302</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>56.12325397318857</v>
+        <v>41.01600023956038</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>65.30328942497238</v>
+        <v>47.50538411463527</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>54.97822602440397</v>
+        <v>26.66340110223102</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>58.95098263813711</v>
+        <v>44.89252578754623</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>58.90997964957621</v>
+        <v>41.55206160850412</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>56.32065998777178</v>
+        <v>42.34107699805853</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>65.49867567550268</v>
+        <v>48.98950471151882</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>55.17151783718843</v>
+        <v>27.97830296100024</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>59.14576770562972</v>
+        <v>46.9045952734226</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>58.37447264753322</v>
+        <v>36.83665094493043</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>55.78623088839304</v>
+        <v>36.34698833550303</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>64.96713059795709</v>
+        <v>42.48777425268433</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>54.64712854210212</v>
+        <v>22.12868051390868</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>58.61837143455342</v>
+        <v>40.37461671104785</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>55.57028099977893</v>
+        <v>31.52635713722889</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>64.60076696996556</v>
+        <v>37.90455253596976</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>54.45313007151131</v>
+        <v>17.44483922435392</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>65.51591702088793</v>
+        <v>34.33982502270739</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>63.01998471057556</v>
+        <v>39.52705109743659</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>72.10575242799624</v>
+        <v>46.66816404667394</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>61.86847686888125</v>
+        <v>24.6213353658134</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>56.39335617984585</v>
+        <v>48.4383648943565</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>65.44886058559592</v>
+        <v>55.8730030464349</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>55.25537996020712</v>
+        <v>33.83741629406203</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>66.35765153122915</v>
+        <v>52.48866338866789</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>63.85280914562942</v>
+        <v>59.27409299073993</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>72.96369587193571</v>
+        <v>67.53068867388158</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>62.68060735470397</v>
+        <v>43.79246680868211</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>56.58829711014976</v>
+        <v>50.69961461319377</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>65.64181321030642</v>
+        <v>58.32372660697276</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>55.44625419631904</v>
+        <v>36.09245208054656</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>66.54794461432714</v>
+        <v>55.51277740633589</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>64.04329935462211</v>
+        <v>62.53666924324197</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>73.15216879727414</v>
+        <v>70.99419518693587</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>62.86711683766979</v>
+        <v>47.03313528323746</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>56.06197019195935</v>
+        <v>42.783318488565</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>65.11833141794524</v>
+        <v>49.82879132255158</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>54.92980435982342</v>
+        <v>28.32017155287808</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>66.0230589694702</v>
+        <v>48.07262615632696</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>63.51946171881485</v>
+        <v>53.71788501686815</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>72.63113451910354</v>
+        <v>61.56658809804215</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>62.35317621276783</v>
+        <v>38.3613809875629</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>153.939850195624</v>
+        <v>23.62136164216659</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>149.6058247387288</v>
+        <v>22.47177154995569</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>160.0990426364964</v>
+        <v>27.49955495589412</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>145.1287788990951</v>
+        <v>9.453043234237583</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>153.1827171448053</v>
+        <v>25.45453027859524</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>154.9677763426332</v>
+        <v>34.91501263403907</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>150.6221093107677</v>
+        <v>35.15890075982716</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>161.1437368647299</v>
+        <v>41.067286792533</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>146.1186500080098</v>
+        <v>21.6543057499902</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>154.1981415269951</v>
+        <v>40.4166091302318</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>155.1268462361603</v>
+        <v>36.06355418542526</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>150.7822948019046</v>
+        <v>36.5614372967557</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>161.3014616263736</v>
+        <v>42.62697274541803</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>146.2762889329666</v>
+        <v>23.04306085240178</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>154.3551124331264</v>
+        <v>42.47805278623539</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>154.682018950497</v>
+        <v>31.50178067668495</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>150.336350240169</v>
+        <v>30.7627243756612</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>160.8591988511685</v>
+        <v>36.33968777262513</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>145.8363971090488</v>
+        <v>17.38198598323336</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>153.917728975864</v>
+        <v>36.14879816410654</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>148.9001403104517</v>
+        <v>26.96305526902313</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>159.2512425885432</v>
+        <v>32.75516842383235</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>144.4656774955715</v>
+        <v>13.66529540232159</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>159.1538552459303</v>
+        <v>30.5410970417406</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>154.9644845076455</v>
+        <v>35.17258172248305</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>165.3746660430733</v>
+        <v>41.71686950562462</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>150.5681279549373</v>
+        <v>21.05478408643468</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>149.9040305087182</v>
+        <v>43.42477256702711</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>160.2831714165802</v>
+        <v>50.23393470240524</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>145.4434554264889</v>
+        <v>29.62521201147655</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>160.1779359971306</v>
+        <v>48.22089766091818</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>155.977371089943</v>
+        <v>54.39074608352342</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>166.4157049577946</v>
+        <v>62.00877677180655</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>151.5551142813329</v>
+        <v>39.71636406119627</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>150.0620939709557</v>
+        <v>45.72820050047642</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>160.4388116499779</v>
+        <v>52.72408082809895</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>145.5990038752165</v>
+        <v>31.91848239369087</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>160.3313876213099</v>
+        <v>51.25660576884374</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>156.1319381915479</v>
+        <v>57.65723996315764</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>166.5678190872179</v>
+        <v>65.4725749525693</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>151.7072117962503</v>
+        <v>42.95755548459276</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>149.623609120497</v>
+        <v>38.05756564864622</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>160.0039600121679</v>
+        <v>44.49577701702167</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>145.1664450635571</v>
+        <v>24.38613127089972</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>159.8931269449476</v>
+        <v>44.03338549603872</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>155.6926067378319</v>
+        <v>49.10022973619751</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>166.1320673331174</v>
+        <v>56.3286886232636</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>151.2739520706271</v>
+        <v>34.54137484394778</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>54.18049907535428</v>
+        <v>22.79755563730369</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>51.50944720282516</v>
+        <v>21.83096830164153</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>60.70979684729987</v>
+        <v>27.26313271605792</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>50.36911663270238</v>
+        <v>8.05608593469108</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>54.39996816846435</v>
+        <v>23.05546730115294</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>55.02233973343384</v>
+        <v>33.83322679135608</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>52.34204930295239</v>
+        <v>34.26934343566371</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>61.56788996332544</v>
+        <v>40.60916041732136</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>51.18076022741755</v>
+        <v>19.98813318196339</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>55.23138904559688</v>
+        <v>37.73510969204274</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>55.22300667988034</v>
+        <v>34.62107790769683</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>52.54296386082724</v>
+        <v>35.31482133821338</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>61.76678992389918</v>
+        <v>41.80771065232877</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>51.37757255962311</v>
+        <v>21.02788224636113</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>55.42960067296535</v>
+        <v>39.43581023667564</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>54.67961814667935</v>
+        <v>29.86371865251786</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>52.00045692611072</v>
+        <v>29.32100439053641</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>61.22714988342398</v>
+        <v>35.30177590565825</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>50.8449915525848</v>
+        <v>15.19376588959525</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>54.89432346258454</v>
+        <v>32.88153146314494</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>51.76248005132919</v>
+        <v>24.88373703153406</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>60.83837250601972</v>
+        <v>31.13497385689547</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>50.63133630805037</v>
+        <v>10.85602463027837</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>62.23825907834666</v>
+        <v>28.83248423354829</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>59.65673910493722</v>
+        <v>33.7415728754352</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>68.78731261230222</v>
+        <v>40.80230438069604</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>58.48506766789399</v>
+        <v>18.82079721140813</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>52.58474572418948</v>
+        <v>41.07723765112388</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>61.68579863425864</v>
+        <v>48.37603737004746</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>51.43288721178367</v>
+        <v>26.52984246407473</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>63.07963449011876</v>
+        <v>46.35707812973524</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>60.48924035206859</v>
+        <v>52.82806566788611</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>69.64506351049492</v>
+        <v>60.99716359930657</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>59.29696900601849</v>
+        <v>37.33093453676197</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>52.78319166274278</v>
+        <v>43.02265120889061</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>61.88226170593878</v>
+        <v>50.50376710442222</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>51.62727749732682</v>
+        <v>28.47403165856506</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>63.27308232376847</v>
+        <v>49.0637555620374</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>60.6829620604756</v>
+        <v>55.7722868419992</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>69.83677061627188</v>
+        <v>64.1354493952993</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>59.48672361656637</v>
+        <v>40.25956201657026</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>52.24879044213885</v>
+        <v>35.12392211603017</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>61.35068873980947</v>
+        <v>42.02037994074679</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>51.10264200741036</v>
+        <v>20.73492460609138</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>62.7411100251713</v>
+        <v>41.56533258729499</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>60.15184835018265</v>
+        <v>46.92906512865994</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>69.30844732278253</v>
+        <v>54.67706363162371</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>58.96539028928485</v>
+        <v>31.579057430428</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.53771117742572</v>
+        <v>14.52334022377377</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>27.45715919647415</v>
+        <v>13.71064365191774</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>36.14424991503685</v>
+        <v>18.48316881118873</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>27.29024035183217</v>
+        <v>1.184462090472334</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.05591622865427</v>
+        <v>16.71195025739424</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>30.32576610179586</v>
+        <v>25.16916928990909</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.23661766216813</v>
+        <v>25.71394149627919</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>36.9480566568332</v>
+        <v>31.34649698718852</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.05016138724803</v>
+        <v>12.71739468049187</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.83423579427753</v>
+        <v>31.05455369127408</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>30.5343843340816</v>
+        <v>26.12241034748379</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.44513193792799</v>
+        <v>26.91363524813991</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>37.15472352440485</v>
+        <v>32.69654737568966</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.25411151245729</v>
+        <v>13.90632881661031</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.04029503171014</v>
+        <v>32.90616483604597</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.97212698904899</v>
+        <v>21.66340815548146</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>27.88458337616272</v>
+        <v>21.25387625159537</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>36.5967455128212</v>
+        <v>26.55356041839651</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.70474367116001</v>
+        <v>8.385225207917733</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>30.4863304614239</v>
+        <v>26.61308500432971</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.00205599691308</v>
+        <v>18.45219840350977</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>36.57104294478937</v>
+        <v>24.01370823612466</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>27.83271295878878</v>
+        <v>5.618550006968899</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.05279260940723</v>
+        <v>23.549477444428</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>36.03594889177251</v>
+        <v>28.26968172230298</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>44.66255687805516</v>
+        <v>34.59580240816317</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>35.80552034317705</v>
+        <v>14.57385522346876</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.7718572773889</v>
+        <v>34.25147829121367</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>37.3648753322888</v>
+        <v>40.80964420114653</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.58320248989492</v>
+        <v>20.92880265315364</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>38.84128531319672</v>
+        <v>40.68878478712112</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>36.81617154655142</v>
+        <v>46.90393583876539</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>45.4669116297311</v>
+        <v>54.28469377926741</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>36.56652212973979</v>
+        <v>32.66189445240743</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.97780407868187</v>
+        <v>36.33755153220202</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>37.56900391712983</v>
+        <v>43.07475535163213</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.7846373400661</v>
+        <v>23.00771623956882</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>39.04253704160996</v>
+        <v>43.51147617881045</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>37.01735776839996</v>
+        <v>49.95116976722699</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>45.66624911932686</v>
+        <v>57.52216572951189</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>36.76329434251962</v>
+        <v>35.68677722798259</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>28.42553258251241</v>
+        <v>28.74413462862812</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>37.0192679612077</v>
+        <v>34.9275079115503</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>28.24337370904571</v>
+        <v>15.55635805276601</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>38.49222819393165</v>
+        <v>36.26426176157508</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.46870503490801</v>
+        <v>41.4089552079749</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>45.12009799337146</v>
+        <v>48.39656831160421</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>36.22563042855347</v>
+        <v>27.29089267021707</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>154.3584085470324</v>
+        <v>20.57703983734522</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>150.0271801227576</v>
+        <v>19.558892817056</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>160.5053354479244</v>
+        <v>24.46688752971886</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>145.5439257478148</v>
+        <v>6.765639739553983</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>153.5944814105428</v>
+        <v>21.82622048085713</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>155.385559161367</v>
+        <v>31.79540919508673</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>151.0427014500354</v>
+        <v>32.16585623929163</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>161.549225184981</v>
+        <v>37.94940857797933</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>146.5330550221566</v>
+        <v>18.89193373653504</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>154.6091368672597</v>
+        <v>36.72153096278327</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>155.5440934020682</v>
+        <v>32.95921468669717</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>151.2023513876436</v>
+        <v>33.5809549461823</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>161.7064179302738</v>
+        <v>39.5213109426095</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>146.6901692830819</v>
+        <v>20.29240878815796</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>154.7655787235028</v>
+        <v>38.80120715852019</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>155.1007218204645</v>
+        <v>28.41057916288936</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>150.7578584515892</v>
+        <v>27.79978161487742</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>161.2656044765266</v>
+        <v>33.25349435450897</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>146.2517019563791</v>
+        <v>14.64718356495779</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>154.3296288621344</v>
+        <v>32.46611375417302</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>149.3146837109427</v>
+        <v>23.41981550070857</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>159.6509032349998</v>
+        <v>29.07959030760144</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>144.8741556907693</v>
+        <v>10.34152134844168</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>159.5304011175014</v>
+        <v>27.24342101536678</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>155.3438923818846</v>
+        <v>31.94553907154358</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>165.7389208058437</v>
+        <v>38.36095105344415</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>150.9419221245611</v>
+        <v>18.03809985618294</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>150.3178172969623</v>
+        <v>39.80769103176475</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>160.6820347272578</v>
+        <v>46.47924598137728</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>145.8511983338483</v>
+        <v>26.23165847856892</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>160.5536888543445</v>
+        <v>44.8621258776559</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>156.3559971032998</v>
+        <v>51.09507470120479</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>166.7791367475936</v>
+        <v>58.57892379346959</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>151.9281471617759</v>
+        <v>36.6345716072467</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>150.4753518516586</v>
+        <v>42.12670958958732</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>160.837149559421</v>
+        <v>48.98456931096818</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>146.006228637993</v>
+        <v>28.53950841470413</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>160.706638717093</v>
+        <v>47.91309270277868</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>156.5100621715844</v>
+        <v>54.37415235757185</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>166.9307524752745</v>
+        <v>62.05486089863692</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>152.0797527143953</v>
+        <v>39.88729567921113</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>150.038296568408</v>
+        <v>34.45601381372954</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>160.4037251992858</v>
+        <v>40.75795275357898</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>145.5750727393206</v>
+        <v>21.00626420819328</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>160.26976379764</v>
+        <v>40.68058372018486</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>156.0721131328758</v>
+        <v>45.81371121712286</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>166.4963806097587</v>
+        <v>52.90931010175225</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>151.6478497896037</v>
+        <v>31.46724498243398</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>30.77567096796485</v>
+        <v>27.55200454570101</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.62049972710516</v>
+        <v>26.47482054760097</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>37.48627619376043</v>
+        <v>31.78221378596078</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.39608895960387</v>
+        <v>13.123284610171</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>31.2693190298054</v>
+        <v>27.37398554279176</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>31.57350594876525</v>
+        <v>38.06416586052405</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.40965128854013</v>
+        <v>38.38236004761165</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>38.3001356521162</v>
+        <v>44.56897285609118</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>29.16551634482633</v>
+        <v>24.54970331998111</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>32.05728869687709</v>
+        <v>41.48851658418511</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>31.78340614471636</v>
+        <v>38.83764633840177</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>29.6194893812666</v>
+        <v>39.41173205007474</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>38.50805518709065</v>
+        <v>45.74865769757434</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.37078831886311</v>
+        <v>25.57199166285721</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>32.26462006960892</v>
+        <v>43.18276501930481</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>31.2172348487172</v>
+        <v>34.56913165814031</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.0549386180948</v>
+        <v>33.91112559612854</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>37.94618094677541</v>
+        <v>39.75796268259806</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>28.81740411581765</v>
+        <v>20.20960144104124</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>31.70677702939361</v>
+        <v>37.15870614247554</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.14188958413477</v>
+        <v>29.07840958586264</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>37.88725231195571</v>
+        <v>35.17504505003135</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>28.91619506758748</v>
+        <v>15.48175077119712</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>39.29627109050813</v>
+        <v>33.15343626403766</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>37.21071274884721</v>
+        <v>37.85618975289643</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>46.01174666300639</v>
+        <v>44.70478950652625</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>36.925346248593</v>
+        <v>23.40711854753908</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>29.92125399322529</v>
+        <v>44.69187391935531</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>38.69100260820508</v>
+        <v>51.80317524591383</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>29.67606311572368</v>
+        <v>30.59979282256626</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>40.09441898595216</v>
+        <v>50.06796465984689</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>38.00051360363486</v>
+        <v>56.3111947087475</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>46.82603310036118</v>
+        <v>64.23214303545524</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>37.69574630675658</v>
+        <v>41.31265092619554</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>30.12851398893566</v>
+        <v>46.62869689363504</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>38.89637416418082</v>
+        <v>53.9194313605196</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>29.87880886527213</v>
+        <v>32.53353577286831</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>40.29692377184888</v>
+        <v>52.74702329325839</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>38.20299191891624</v>
+        <v>59.22411737007438</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>47.02659370888663</v>
+        <v>67.33593009296668</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>37.89380821119534</v>
+        <v>44.2080388801225</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>29.572278072824</v>
+        <v>39.2725324061644</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>38.34277857897565</v>
+        <v>46.00455167510491</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>29.33356779599507</v>
+        <v>25.31642626918998</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>39.7427587173261</v>
+        <v>45.77293982724812</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>37.65039801036689</v>
+        <v>50.92212535305566</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>46.47660133029565</v>
+        <v>58.44641823900549</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>37.35219006879537</v>
+        <v>36.04707782990391</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>43.86843459334312</v>
+        <v>23.36551733209912</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>41.3976889177283</v>
+        <v>22.3842100580457</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>50.5041071980625</v>
+        <v>27.85826015110721</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>40.63844599025894</v>
+        <v>8.565764888504077</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>44.20896209349839</v>
+        <v>23.64896871838653</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>44.69701187431934</v>
+        <v>34.5582119728837</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>42.21719335933678</v>
+        <v>34.97454396877217</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>51.34893374773448</v>
+        <v>41.35767910081875</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>41.43736938857292</v>
+        <v>20.64671501005259</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>45.02729318364765</v>
+        <v>38.4696296595061</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>44.90331250813104</v>
+        <v>35.40488129333229</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>42.42360837712501</v>
+        <v>36.07700568545095</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>51.5533753916832</v>
+        <v>42.61357275115878</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>41.63945074706196</v>
+        <v>21.74218996839464</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>45.23107521550899</v>
+        <v>40.22502402910394</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>44.34649450667395</v>
+        <v>30.57712721141184</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>41.86798583571282</v>
+        <v>30.01495594825809</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>51.00055677744356</v>
+        <v>36.03894151028875</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>41.09434035253251</v>
+        <v>15.83964741168136</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>44.68250840928233</v>
+        <v>33.60832608309531</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>41.76940455738661</v>
+        <v>25.48026537067649</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>50.75258420772658</v>
+        <v>31.76851418403471</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>41.01483561760469</v>
+        <v>11.42301812297125</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>52.17263198630154</v>
+        <v>28.74222803338969</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>49.78415567810644</v>
+        <v>33.65760346690617</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>58.82165135077533</v>
+        <v>40.73300209200005</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>48.9821642726994</v>
+        <v>18.72990261740335</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>42.57874431119292</v>
+        <v>41.80873433876447</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>51.58691760207995</v>
+        <v>49.14542703461979</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>41.80383270315394</v>
+        <v>27.22848003606668</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>53.00096220477765</v>
+        <v>46.38597643827448</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>50.60377025015116</v>
+        <v>52.85620891312482</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>59.66634891225356</v>
+        <v>61.04022084498848</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>49.78154810592316</v>
+        <v>37.3495127543916</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>42.78262900387567</v>
+        <v>43.80672247578876</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>51.78886006948554</v>
+        <v>51.32599184293592</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>42.00343280073158</v>
+        <v>29.22383647740465</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>53.19988497932238</v>
+        <v>49.14462802485584</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>50.80283823479378</v>
+        <v>55.85009002964495</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>59.86344326247657</v>
+        <v>64.22830830957076</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>49.97642523668594</v>
+        <v>40.3264237602169</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>42.23524834951797</v>
+        <v>35.84889398101656</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>51.24424537293055</v>
+        <v>42.78341068330651</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>41.46639793465771</v>
+        <v>21.42591189716485</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>52.65487891085672</v>
+        <v>41.58419111748105</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>50.25899430667636</v>
+        <v>46.94934098653411</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>59.32232771930789</v>
+        <v>54.71223478052927</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>49.44292833658665</v>
+        <v>31.58861462573224</v>
       </c>
     </row>
   </sheetData>
